--- a/xls/new.xlsx
+++ b/xls/new.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -94,10 +94,7 @@
     <t>Другой телефон (контакт)</t>
   </si>
   <si>
-    <t>761975</t>
-  </si>
-  <si>
-    <t>Сделка #761975</t>
+    <t>Сделка #321</t>
   </si>
   <si>
     <t>Виталий</t>
@@ -115,22 +112,7 @@
     <t>не закрыта</t>
   </si>
   <si>
-    <t>Lead 123</t>
-  </si>
-  <si>
-    <t>13.10.2020 13:03:60</t>
-  </si>
-  <si>
-    <t>lead 456</t>
-  </si>
-  <si>
-    <t>13.10.2020 13:03:61</t>
-  </si>
-  <si>
-    <t>Lead 789</t>
-  </si>
-  <si>
-    <t>13.10.2020 13:03:62</t>
+    <t>Сделка #432</t>
   </si>
 </sst>
 </file>
@@ -140,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/y h:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -150,6 +132,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,11 +148,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -481,36 +467,36 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>321.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H2" s="1">
         <v>123.0</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="P2" s="1">
         <v>123.0</v>
@@ -520,60 +506,27 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
+        <v>432.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="4">
         <v>1234567.0</v>
       </c>
-      <c r="B3" s="3">
-        <v>1234567.0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1234567.0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
+      <c r="I3" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3">
-        <v>456.0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3">
-        <v>456.0</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3">
-        <v>789.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="3">
-        <v>789.0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1"/>
